--- a/biology/Botanique/Square_des_Anciens-Combattants-d'Indochine/Square_des_Anciens-Combattants-d'Indochine.xlsx
+++ b/biology/Botanique/Square_des_Anciens-Combattants-d'Indochine/Square_des_Anciens-Combattants-d'Indochine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_des_Anciens-Combattants-d%27Indochine</t>
+          <t>Square_des_Anciens-Combattants-d'Indochine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square des Anciens-Combattants-d’Indochine est un espace vert du 12e arrondissement de Paris situé dans le quartier de la Porte Dorée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_des_Anciens-Combattants-d%27Indochine</t>
+          <t>Square_des_Anciens-Combattants-d'Indochine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square occupe le terre-plein central de la place Édouard-Renard ; il est bordé de palmiers et comporte une pièce d’eau en cascade dénommée fontaine de la Porte Dorée, surplombée par une statue d’Athéna due à Léon-Ernest Drivier (1931).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_des_Anciens-Combattants-d%27Indochine</t>
+          <t>Square_des_Anciens-Combattants-d'Indochine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette appellation rend hommage aux combattants de la guerre d'Indochine (1946-1954).
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_des_Anciens-Combattants-d%27Indochine</t>
+          <t>Square_des_Anciens-Combattants-d'Indochine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de ce square des Anciens-Combattants-d’Indochine est analogue à celui de la place des Combattants-en-Afrique-du-Nord, située aussi dans le 12e arrondissement, et qui a reçu son nom en 1984.
 Il existe par ailleurs un boulevard d'Indochine dans le 19e arrondissement de Paris, qui a reçu son nom en 1933.
-Alfred Fierro indique : « La Nomenclature officielle omet le square des Combattants-d’Indochine créé en 1987 dans le 12e arrondissement[1]. » Les espaces verts n’apparaissent pas dans la Nomenclature officielle des voies de la ville de Paris[2].
+Alfred Fierro indique : « La Nomenclature officielle omet le square des Combattants-d’Indochine créé en 1987 dans le 12e arrondissement. » Les espaces verts n’apparaissent pas dans la Nomenclature officielle des voies de la ville de Paris.
 </t>
         </is>
       </c>
